--- a/data/xlsx/P-正确率-线代2024.xlsx
+++ b/data/xlsx/P-正确率-线代2024.xlsx
@@ -593,10 +593,10 @@
         <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7391</v>
+        <v>0.9444</v>
       </c>
       <c r="M2" t="n">
         <v>19</v>
@@ -863,10 +863,10 @@
         <v>99</v>
       </c>
       <c r="K6" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.75</v>
+        <v>0.8115</v>
       </c>
       <c r="M6" t="n">
         <v>59</v>

--- a/data/xlsx/P-正确率-线代2024.xlsx
+++ b/data/xlsx/P-正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>复习全书基础篇</t>
+          <t>复习全书基础</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1800基础篇</t>
+          <t>1800基础</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>张宇基础篇</t>
+          <t>张宇基础</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -836,73 +836,153 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>张宇强化</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12.31-1.3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8235</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7586000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14</v>
+      </c>
+      <c r="T6" t="n">
+        <v>19</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>423</v>
-      </c>
-      <c r="E6" t="n">
-        <v>539</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7848000000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>54</v>
-      </c>
-      <c r="H6" t="n">
-        <v>59</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9153</v>
-      </c>
-      <c r="J6" t="n">
-        <v>99</v>
-      </c>
-      <c r="K6" t="n">
-        <v>122</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8115</v>
-      </c>
-      <c r="M6" t="n">
-        <v>59</v>
-      </c>
-      <c r="N6" t="n">
-        <v>81</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.7284</v>
-      </c>
-      <c r="P6" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>80</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="S6" t="n">
-        <v>81</v>
-      </c>
-      <c r="T6" t="n">
-        <v>120</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="V6" t="n">
-        <v>64</v>
-      </c>
-      <c r="W6" t="n">
-        <v>77</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.8312</v>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E7" t="n">
+        <v>638</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7837</v>
+      </c>
+      <c r="G7" t="n">
+        <v>68</v>
+      </c>
+      <c r="H7" t="n">
+        <v>76</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8947000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>121</v>
+      </c>
+      <c r="K7" t="n">
+        <v>151</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8013</v>
+      </c>
+      <c r="M7" t="n">
+        <v>68</v>
+      </c>
+      <c r="N7" t="n">
+        <v>90</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7556</v>
+      </c>
+      <c r="P7" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>90</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>95</v>
+      </c>
+      <c r="T7" t="n">
+        <v>139</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="V7" t="n">
+        <v>76</v>
+      </c>
+      <c r="W7" t="n">
+        <v>92</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.8260999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-线代2024.xlsx
+++ b/data/xlsx/P-正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,73 +916,309 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>复习全书提高</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.26-2.4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.26-2.7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>余炳森1000基础</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.17-2.18</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>87</v>
+      </c>
+      <c r="E9" t="n">
+        <v>95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9157999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9048</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19</v>
+      </c>
+      <c r="N9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>11</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9091</v>
+      </c>
+      <c r="S9" t="n">
+        <v>21</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9545</v>
+      </c>
+      <c r="V9" t="n">
+        <v>11</v>
+      </c>
+      <c r="W9" t="n">
+        <v>14</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7857</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>余炳森1000强化</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.26-2.27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>130</v>
+      </c>
+      <c r="E10" t="n">
+        <v>156</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8182</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8485</v>
+      </c>
+      <c r="M10" t="n">
+        <v>30</v>
+      </c>
+      <c r="N10" t="n">
+        <v>33</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9091</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="S10" t="n">
+        <v>32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>40</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>18</v>
+      </c>
+      <c r="W10" t="n">
+        <v>21</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.8571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E7" t="n">
-        <v>638</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7837</v>
-      </c>
-      <c r="G7" t="n">
-        <v>68</v>
-      </c>
-      <c r="H7" t="n">
-        <v>76</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8947000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>121</v>
-      </c>
-      <c r="K7" t="n">
-        <v>151</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8013</v>
-      </c>
-      <c r="M7" t="n">
-        <v>68</v>
-      </c>
-      <c r="N7" t="n">
-        <v>90</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.7556</v>
-      </c>
-      <c r="P7" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>90</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>717</v>
+      </c>
+      <c r="E11" t="n">
+        <v>889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8065</v>
+      </c>
+      <c r="G11" t="n">
+        <v>84</v>
+      </c>
+      <c r="H11" t="n">
         <v>95</v>
       </c>
-      <c r="T7" t="n">
-        <v>139</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.6835</v>
-      </c>
-      <c r="V7" t="n">
-        <v>76</v>
-      </c>
-      <c r="W7" t="n">
-        <v>92</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.8260999999999999</v>
+      <c r="I11" t="n">
+        <v>0.8842</v>
+      </c>
+      <c r="J11" t="n">
+        <v>168</v>
+      </c>
+      <c r="K11" t="n">
+        <v>205</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8195</v>
+      </c>
+      <c r="M11" t="n">
+        <v>117</v>
+      </c>
+      <c r="N11" t="n">
+        <v>142</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8239</v>
+      </c>
+      <c r="P11" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>119</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7983</v>
+      </c>
+      <c r="S11" t="n">
+        <v>148</v>
+      </c>
+      <c r="T11" t="n">
+        <v>201</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.7363</v>
+      </c>
+      <c r="V11" t="n">
+        <v>105</v>
+      </c>
+      <c r="W11" t="n">
+        <v>127</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.8268</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-线代2024.xlsx
+++ b/data/xlsx/P-正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,73 +1152,153 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>张宇基础</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.13-3.16</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>160</v>
+      </c>
+      <c r="E11" t="n">
+        <v>171</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9357</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9429</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23</v>
+      </c>
+      <c r="N11" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8846000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9258999999999999</v>
+      </c>
+      <c r="S11" t="n">
+        <v>31</v>
+      </c>
+      <c r="T11" t="n">
+        <v>34</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9118000000000001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>717</v>
-      </c>
-      <c r="E11" t="n">
-        <v>889</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.8065</v>
-      </c>
-      <c r="G11" t="n">
-        <v>84</v>
-      </c>
-      <c r="H11" t="n">
-        <v>95</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8842</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>877</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8274</v>
+      </c>
+      <c r="G12" t="n">
+        <v>107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>119</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8992</v>
+      </c>
+      <c r="J12" t="n">
+        <v>201</v>
+      </c>
+      <c r="K12" t="n">
+        <v>240</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="M12" t="n">
+        <v>140</v>
+      </c>
+      <c r="N12" t="n">
         <v>168</v>
       </c>
-      <c r="K11" t="n">
-        <v>205</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.8195</v>
-      </c>
-      <c r="M11" t="n">
-        <v>117</v>
-      </c>
-      <c r="N11" t="n">
-        <v>142</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.8239</v>
-      </c>
-      <c r="P11" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>119</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.7983</v>
-      </c>
-      <c r="S11" t="n">
-        <v>148</v>
-      </c>
-      <c r="T11" t="n">
-        <v>201</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.7363</v>
-      </c>
-      <c r="V11" t="n">
-        <v>105</v>
-      </c>
-      <c r="W11" t="n">
-        <v>127</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.8268</v>
+      <c r="O12" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="P12" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>146</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8219</v>
+      </c>
+      <c r="S12" t="n">
+        <v>179</v>
+      </c>
+      <c r="T12" t="n">
+        <v>235</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="V12" t="n">
+        <v>130</v>
+      </c>
+      <c r="W12" t="n">
+        <v>152</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8552999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-线代2024.xlsx
+++ b/data/xlsx/P-正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,27 +731,69 @@
           <t>10.25-11.2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>175</v>
+      </c>
+      <c r="E4" t="n">
+        <v>234</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" t="n">
+        <v>56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8108</v>
+      </c>
+      <c r="P4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>42</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="S4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T4" t="n">
+        <v>34</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6471</v>
+      </c>
+      <c r="V4" t="n">
+        <v>22</v>
+      </c>
+      <c r="W4" t="n">
+        <v>33</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.6667</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1232,73 +1274,153 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>杨超139强化</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5.12-5.15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>216</v>
+      </c>
+      <c r="E12" t="n">
+        <v>234</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="J12" t="n">
+        <v>54</v>
+      </c>
+      <c r="K12" t="n">
+        <v>56</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8649</v>
+      </c>
+      <c r="P12" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>42</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="S12" t="n">
+        <v>31</v>
+      </c>
+      <c r="T12" t="n">
+        <v>34</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9118000000000001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>28</v>
+      </c>
+      <c r="W12" t="n">
+        <v>33</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8485</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>877</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1060</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8274</v>
-      </c>
-      <c r="G12" t="n">
-        <v>107</v>
-      </c>
-      <c r="H12" t="n">
-        <v>119</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.8992</v>
-      </c>
-      <c r="J12" t="n">
-        <v>201</v>
-      </c>
-      <c r="K12" t="n">
-        <v>240</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.8375</v>
-      </c>
-      <c r="M12" t="n">
-        <v>140</v>
-      </c>
-      <c r="N12" t="n">
-        <v>168</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="P12" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>146</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.8219</v>
-      </c>
-      <c r="S12" t="n">
-        <v>179</v>
-      </c>
-      <c r="T12" t="n">
-        <v>235</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.7617</v>
-      </c>
-      <c r="V12" t="n">
-        <v>130</v>
-      </c>
-      <c r="W12" t="n">
-        <v>152</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.8552999999999999</v>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1528</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8298</v>
+      </c>
+      <c r="G13" t="n">
+        <v>162</v>
+      </c>
+      <c r="H13" t="n">
+        <v>183</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8852</v>
+      </c>
+      <c r="J13" t="n">
+        <v>295</v>
+      </c>
+      <c r="K13" t="n">
+        <v>352</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8381</v>
+      </c>
+      <c r="M13" t="n">
+        <v>202</v>
+      </c>
+      <c r="N13" t="n">
+        <v>242</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8347</v>
+      </c>
+      <c r="P13" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>230</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="S13" t="n">
+        <v>232</v>
+      </c>
+      <c r="T13" t="n">
+        <v>303</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7657</v>
+      </c>
+      <c r="V13" t="n">
+        <v>180</v>
+      </c>
+      <c r="W13" t="n">
+        <v>218</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.8257</v>
       </c>
     </row>
   </sheetData>
